--- a/v1/Data-Ebind-Ec_for-ML_20190517.xlsx
+++ b/v1/Data-Ebind-Ec_for-ML_20190517.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gebruiker\Dropbox\YS-07-TM-diffusion kinetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyifan/Documents/GitHub/SAC-Stability/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F1BE7B-AE67-4AAA-BD2B-C88F548AE610}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA5F68D-3E1C-E24C-89B6-E3E4278A2011}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21492" windowHeight="5628" tabRatio="944" xr2:uid="{6E513405-AAD0-4117-B5FC-166F7919F59F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="13640" tabRatio="944" xr2:uid="{6E513405-AAD0-4117-B5FC-166F7919F59F}"/>
   </bookViews>
   <sheets>
     <sheet name="total-new" sheetId="14" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
   <si>
     <t>Ea</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,49 +100,52 @@
     <t>Mn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Ebind^2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,6 +211,3091 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'total-new'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ebind^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21238188976377953"/>
+                  <c:y val="-0.13521726450860308"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'total-new'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9996999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>4.2499999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.391E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4298500000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.81396000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5820799999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.17726</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2536200000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.41337</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2823000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'total-new'!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>18.156121000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9696000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.758399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.729600000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.920899999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.484899999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.372900000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.427600000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.702499999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.880100000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.9129</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3264000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.3041</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.662400000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.8164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.848400000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41234377960000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23369489640000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32563000960000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4305337089000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3713228080999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4263531320999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5970640624999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4998552240999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2477209999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1363560000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.1249610000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6129</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5128999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7524000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3124000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5849000000000011</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8769000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5343999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.5076000000000009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3124000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1684000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.82810000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.760900000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.1824000000000012</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.3904</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.4248999999999992</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.366399999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.056899999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.2360999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.531600000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.9239490529000012</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1662643600000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4882048063999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26.800707763600002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.303329614400001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.059025000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.999600001599998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.673596724900005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42.770292010000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.946067289999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.047616000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18.576099999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.902500000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>27.878400000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30.691600000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27.144099999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.300900000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.697599999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28.515599999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.419599999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.3441000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.2761</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0816000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14.976900000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.5225000000000009</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.696399999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.088900000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19.624899999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.132100000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9481690000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4614392100000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.8624159999999987</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3932160000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10.061584000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.0649639999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.5946240000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.969161000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.8288039999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.3513639999999985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1605-534B-BB7B-BEFB50083C97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2129234015"/>
+        <c:axId val="2129235695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2129234015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129235695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2129235695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129234015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'total-new'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(Ebind)2/Ec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26557524059492565"/>
+                  <c:y val="-3.605460775736366E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'total-new'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9996999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>4.2499999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.391E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4298500000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.81396000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5820799999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.17726</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2536200000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.41337</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2823000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'total-new'!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.2023269340974219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3625762711864406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8237270341207346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4706306306306312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3501542416452441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.123441780821917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.716378132118451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8909391304347833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5457636887608075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.837032710280373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3234569732937693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7908309455587392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97966101694915242</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55183727034120733</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1335360360360358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1121850899742931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7644006849315068</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2511161731207299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2289391304347825</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2922766570605186</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3831775700934577</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9228486646884273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1181500801146132</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9218608949152544E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5467194120734918E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77264272722972982</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60959455221079673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75793718015410949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3637959140091116</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60867047375652172</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61206354466858781</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26550373831775703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61201201780415437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7294520547945208E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46214899713467045</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19067796610169491</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.39708661417322832</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0703603603603604</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8515167095115681</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4700171232876715</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4275398633257404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61467826086956523</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0817867435158501</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.77392523364485988</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36571216617210683</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90785100286532949</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.28071186440677964</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.28937007874015747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5497522522522522</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8463753213367611</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.1216438356164384</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1469020501138951</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6724173913043474</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.457766570605187</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6906775700934578</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8592878338278933</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8435384105730659</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.073309952542373</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39060493606299207</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0361954422522519</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6486708520308486</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1196960616438361</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.6946697042369019</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8127994304173924</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1628662838616721</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9967446939252325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1613673590504447</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.32266475644699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.6576271186440672</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1240157480314963</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.2789189189189187</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.519280205655527</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.2554109589041103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.1831662870159452</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.400156521739131</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.5846685878962523</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.6625233644859811</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.9198219584569727</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.10432664756447</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1105423728813559</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.28388451443569557</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3731756756756757</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4196658097686377</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0028082191780818</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.2892938496583146</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.928504347826087</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.8277953890489909</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.731308411214953</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2451186943620178</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1312805157593124</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.49540312203389836</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.59055118110236215</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.770814414414414</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1293614395886891</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.72287397260274</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.609331207289294</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1468911304347826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1569396253602307</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.829159813084112</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.387442729970326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FDA-2A4F-8CFF-C12A5FC90930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2111948815"/>
+        <c:axId val="2071384767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2111948815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2071384767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2071384767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111948815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4EE819-6B2E-E542-BB9D-72FABADE1EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8111DC2C-5105-6B4F-9294-7AFE5066FBB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,19 +3595,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4DC37-4A0F-4ED9-B269-EA0B3684D9FC}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91:F101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,8 +3623,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3.49</v>
       </c>
@@ -556,8 +3648,12 @@
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>C2^2</f>
+        <v>18.156121000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2.95</v>
       </c>
@@ -578,8 +3674,12 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="2">C3^2</f>
+        <v>6.9696000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3.81</v>
       </c>
@@ -600,8 +3700,12 @@
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>10.758399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -622,8 +3726,12 @@
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>28.729600000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3.89</v>
       </c>
@@ -644,8 +3752,12 @@
       <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>13.0321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5.84</v>
       </c>
@@ -666,8 +3778,12 @@
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>29.920899999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -688,8 +3804,12 @@
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>29.484899999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5.75</v>
       </c>
@@ -710,8 +3830,12 @@
       <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>22.372900000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6.94</v>
       </c>
@@ -732,8 +3856,12 @@
       <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>45.427600000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4.28</v>
       </c>
@@ -754,8 +3882,12 @@
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>20.702499999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6.74</v>
       </c>
@@ -776,8 +3908,12 @@
       <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>35.880100000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>3.49</v>
       </c>
@@ -798,8 +3934,12 @@
       <c r="F13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2.95</v>
       </c>
@@ -820,8 +3960,12 @@
       <c r="F14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2.8899999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3.81</v>
       </c>
@@ -842,8 +3986,12 @@
       <c r="F15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2.1025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -864,8 +4012,12 @@
       <c r="F16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>13.9129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3.89</v>
       </c>
@@ -886,8 +4038,12 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4.3264000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>5.84</v>
       </c>
@@ -908,8 +4064,12 @@
       <c r="F18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>10.3041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -930,8 +4090,12 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>18.662400000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>5.75</v>
       </c>
@@ -952,8 +4116,12 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>12.8164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>6.94</v>
       </c>
@@ -974,8 +4142,12 @@
       <c r="F21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>22.848400000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4.28</v>
       </c>
@@ -996,8 +4168,12 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>23.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>6.74</v>
       </c>
@@ -1018,8 +4194,12 @@
       <c r="F23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3.49</v>
       </c>
@@ -1040,8 +4220,12 @@
       <c r="F24" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.41234377960000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2.95</v>
       </c>
@@ -1062,8 +4246,12 @@
       <c r="F25" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0.23369489640000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3.81</v>
       </c>
@@ -1084,8 +4272,12 @@
       <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0.32563000960000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -1106,8 +4298,12 @@
       <c r="F27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>3.4305337089000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3.89</v>
       </c>
@@ -1128,8 +4324,12 @@
       <c r="F28" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>2.3713228080999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5.84</v>
       </c>
@@ -1150,8 +4350,12 @@
       <c r="F29" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>4.4263531320999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -1172,8 +4376,12 @@
       <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>1.5970640624999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>5.75</v>
       </c>
@@ -1194,8 +4402,12 @@
       <c r="F31" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>3.4998552240999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>6.94</v>
       </c>
@@ -1216,8 +4428,12 @@
       <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>4.2477209999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>4.28</v>
       </c>
@@ -1238,8 +4454,12 @@
       <c r="F33" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>1.1363560000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>6.74</v>
       </c>
@@ -1260,8 +4480,12 @@
       <c r="F34" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>4.1249610000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2.92</v>
       </c>
@@ -1282,8 +4506,12 @@
       <c r="F35" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.10890000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>3.49</v>
       </c>
@@ -1304,8 +4532,12 @@
       <c r="F36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>1.6129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2.95</v>
       </c>
@@ -1326,8 +4558,12 @@
       <c r="F37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>3.81</v>
       </c>
@@ -1348,8 +4584,12 @@
       <c r="F38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>1.5128999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -1370,8 +4610,12 @@
       <c r="F39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>4.7524000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>3.89</v>
       </c>
@@ -1392,8 +4636,12 @@
       <c r="F40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>3.3124000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>5.84</v>
       </c>
@@ -1414,8 +4662,12 @@
       <c r="F41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>8.5849000000000011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -1436,8 +4688,12 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>1.8769000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>5.75</v>
       </c>
@@ -1458,8 +4714,12 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>3.5343999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>6.94</v>
       </c>
@@ -1480,8 +4740,12 @@
       <c r="F44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>7.5076000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>4.28</v>
       </c>
@@ -1502,8 +4766,12 @@
       <c r="F45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>3.3124000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>6.74</v>
       </c>
@@ -1524,8 +4792,12 @@
       <c r="F46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>2.4649000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>3.49</v>
       </c>
@@ -1546,8 +4818,12 @@
       <c r="F47" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>3.1684000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2.95</v>
       </c>
@@ -1568,8 +4844,12 @@
       <c r="F48" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0.82810000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>3.81</v>
       </c>
@@ -1590,8 +4870,12 @@
       <c r="F49" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>1.1025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -1612,8 +4896,12 @@
       <c r="F50" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>15.760900000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>3.89</v>
       </c>
@@ -1634,8 +4922,12 @@
       <c r="F51" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>7.1824000000000012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>5.84</v>
       </c>
@@ -1656,8 +4948,12 @@
       <c r="F52" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>12.3904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -1678,8 +4974,12 @@
       <c r="F53" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>9.4248999999999992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>5.75</v>
       </c>
@@ -1700,8 +5000,12 @@
       <c r="F54" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>15.366399999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>6.94</v>
       </c>
@@ -1722,8 +5026,12 @@
       <c r="F55" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>17.056899999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>4.28</v>
       </c>
@@ -1744,8 +5052,12 @@
       <c r="F56" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>7.2360999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>6.74</v>
       </c>
@@ -1766,8 +5078,12 @@
       <c r="F57" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>12.531600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>3.49</v>
       </c>
@@ -1788,8 +5104,12 @@
       <c r="F58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>9.9239490529000012</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2.95</v>
       </c>
@@ -1810,8 +5130,12 @@
       <c r="F59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>3.1662643600000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>3.81</v>
       </c>
@@ -1832,8 +5156,12 @@
       <c r="F60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>1.4882048063999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -1854,8 +5182,12 @@
       <c r="F61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>26.800707763600002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>3.89</v>
       </c>
@@ -1876,8 +5208,12 @@
       <c r="F62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>10.303329614400001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>5.84</v>
       </c>
@@ -1898,8 +5234,12 @@
       <c r="F63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>24.059025000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -1920,8 +5260,12 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>24.999600001599998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>5.75</v>
       </c>
@@ -1942,8 +5286,12 @@
       <c r="F65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>27.673596724900005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>6.94</v>
       </c>
@@ -1964,8 +5312,12 @@
       <c r="F66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>42.770292010000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>4.28</v>
       </c>
@@ -1976,18 +5328,22 @@
         <v>5.4722999999999997</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D101" si="2">C67/A67</f>
+        <f t="shared" ref="D67:D101" si="3">C67/A67</f>
         <v>1.2785747663551401</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" si="3">C67*C67/A67</f>
+        <f t="shared" ref="E67:E101" si="4">C67*C67/A67</f>
         <v>6.9967446939252325</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <f t="shared" ref="G67:G101" si="5">C67^2</f>
+        <v>29.946067289999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>6.74</v>
       </c>
@@ -1998,18 +5354,22 @@
         <v>5.2960000000000003</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78575667655786352</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1613673590504447</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>28.047616000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>3.49</v>
       </c>
@@ -2020,18 +5380,22 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2349570200573063</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.32266475644699</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>18.576099999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2.95</v>
       </c>
@@ -2042,18 +5406,22 @@
         <v>2.8</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94915254237288127</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6576271186440672</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>7.839999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>3.81</v>
       </c>
@@ -2064,18 +5432,22 @@
         <v>3.45</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9055118110236221</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1240157480314963</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>11.902500000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -2086,18 +5458,22 @@
         <v>5.28</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.189189189189189</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2789189189189187</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>27.878400000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>3.89</v>
       </c>
@@ -2108,18 +5484,22 @@
         <v>3.7</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95115681233933158</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.519280205655527</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>13.690000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>5.84</v>
       </c>
@@ -2130,18 +5510,22 @@
         <v>5.54</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94863013698630139</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2554109589041103</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>30.691600000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -2152,18 +5536,22 @@
         <v>5.21</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1867881548974943</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1831662870159452</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>27.144099999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>5.75</v>
       </c>
@@ -2174,18 +5562,22 @@
         <v>5.03</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87478260869565216</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.400156521739131</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>25.300900000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>6.94</v>
       </c>
@@ -2196,18 +5588,22 @@
         <v>6.76</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97406340057636875</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5846685878962523</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>45.697599999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>4.28</v>
       </c>
@@ -2218,18 +5614,22 @@
         <v>5.34</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.247663551401869</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6625233644859811</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>28.515599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>6.74</v>
       </c>
@@ -2240,18 +5640,22 @@
         <v>5.14</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7626112759643916</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9198219584569727</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>26.419599999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>3.49</v>
       </c>
@@ -2262,18 +5666,22 @@
         <v>2.71</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77650429799426923</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.10432664756447</v>
       </c>
       <c r="F80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>7.3441000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2.95</v>
       </c>
@@ -2284,18 +5692,22 @@
         <v>1.81</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61355932203389829</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1105423728813559</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>3.2761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>3.81</v>
       </c>
@@ -2306,18 +5718,22 @@
         <v>1.04</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27296587926509186</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28388451443569557</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>1.0816000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -2328,18 +5744,22 @@
         <v>3.87</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8716216216216216</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3731756756756757</v>
       </c>
       <c r="F83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>14.976900000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>3.89</v>
       </c>
@@ -2350,18 +5770,22 @@
         <v>2.35</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60411311053984573</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4196658097686377</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>5.5225000000000009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>5.84</v>
       </c>
@@ -2372,18 +5796,22 @@
         <v>3.42</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58561643835616439</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0028082191780818</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>11.696399999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -2394,18 +5822,22 @@
         <v>3.8</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86560364464692485</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2892938496583146</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>5.75</v>
       </c>
@@ -2416,18 +5848,22 @@
         <v>3.33</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57913043478260873</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.928504347826087</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>11.088900000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>6.94</v>
       </c>
@@ -2438,18 +5874,22 @@
         <v>4.43</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63832853025936587</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8277953890489909</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>19.624899999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>4.28</v>
       </c>
@@ -2460,18 +5900,22 @@
         <v>4.5</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0514018691588785</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.731308411214953</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>6.74</v>
       </c>
@@ -2482,18 +5926,22 @@
         <v>3.89</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5771513353115727</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2451186943620178</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>15.132100000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>3.49</v>
       </c>
@@ -2504,18 +5952,22 @@
         <v>1.9870000000000001</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56934097421203433</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1312805157593124</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>3.9481690000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2.95</v>
       </c>
@@ -2526,18 +5978,22 @@
         <v>1.2089000000000001</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40979661016949154</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49540312203389836</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>1.4614392100000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>3.81</v>
       </c>
@@ -2548,18 +6004,22 @@
         <v>1.5</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39370078740157477</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59055118110236215</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -2570,18 +6030,22 @@
         <v>2.8039999999999998</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63153153153153141</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.770814414414414</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>7.8624159999999987</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>3.89</v>
       </c>
@@ -2592,18 +6056,22 @@
         <v>2.0960000000000001</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5388174807197943</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1293614395886891</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>4.3932160000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>5.84</v>
       </c>
@@ -2614,18 +6082,22 @@
         <v>3.1720000000000002</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54315068493150687</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.72287397260274</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>10.061584000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -2636,18 +6108,22 @@
         <v>2.6579999999999999</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60546697038724373</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.609331207289294</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>7.0649639999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>5.75</v>
       </c>
@@ -2658,18 +6134,22 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44660869565217393</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1468911304347826</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>6.5946240000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>6.94</v>
       </c>
@@ -2680,18 +6160,22 @@
         <v>3.8690000000000002</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55749279538904895</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1569396253602307</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>14.969161000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>4.28</v>
       </c>
@@ -2702,18 +6186,22 @@
         <v>2.798</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6537383177570093</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.829159813084112</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>7.8288039999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>6.74</v>
       </c>
@@ -2724,20 +6212,25 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45370919881305632</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.387442729970326</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>9.3513639999999985</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/v1/Data-Ebind-Ec_for-ML_20190517.xlsx
+++ b/v1/Data-Ebind-Ec_for-ML_20190517.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyifan/Documents/GitHub/SAC-Stability/v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\GitHub\SAC-Stability\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA5F68D-3E1C-E24C-89B6-E3E4278A2011}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D18DB-5520-44B3-ABA9-A3D88E6AD265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="13640" tabRatio="944" xr2:uid="{6E513405-AAD0-4117-B5FC-166F7919F59F}"/>
+    <workbookView xWindow="645" yWindow="2715" windowWidth="23730" windowHeight="11385" tabRatio="944" xr2:uid="{6E513405-AAD0-4117-B5FC-166F7919F59F}"/>
   </bookViews>
   <sheets>
     <sheet name="total-new" sheetId="14" r:id="rId1"/>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,7 +1226,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1299,6 +1299,315 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>'total-new'!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.2023269340974219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3625762711864406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8237270341207346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4706306306306312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3501542416452441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.123441780821917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.716378132118451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8909391304347833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5457636887608075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.837032710280373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3234569732937693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7908309455587392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97966101694915242</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55183727034120733</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1335360360360358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1121850899742931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7644006849315068</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2511161731207299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2289391304347825</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2922766570605186</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3831775700934577</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9228486646884273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1181500801146132</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9218608949152544E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5467194120734918E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77264272722972982</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60959455221079673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75793718015410949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3637959140091116</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60867047375652172</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61206354466858781</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26550373831775703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61201201780415437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7294520547945208E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46214899713467045</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19067796610169491</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.39708661417322832</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0703603603603604</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8515167095115681</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4700171232876715</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4275398633257404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61467826086956523</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0817867435158501</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.77392523364485988</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36571216617210683</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90785100286532949</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.28071186440677964</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.28937007874015747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5497522522522522</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8463753213367611</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.1216438356164384</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1469020501138951</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6724173913043474</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.457766570605187</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6906775700934578</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8592878338278933</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8435384105730659</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.073309952542373</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39060493606299207</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0361954422522519</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6486708520308486</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1196960616438361</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.6946697042369019</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8127994304173924</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1628662838616721</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9967446939252325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1613673590504447</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.32266475644699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.6576271186440672</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1240157480314963</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.2789189189189187</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.519280205655527</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.2554109589041103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.1831662870159452</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.400156521739131</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.5846685878962523</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.6625233644859811</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.9198219584569727</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.10432664756447</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1105423728813559</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.28388451443569557</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3731756756756757</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4196658097686377</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0028082191780818</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.2892938496583146</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.928504347826087</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.8277953890489909</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.731308411214953</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2451186943620178</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1312805157593124</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.49540312203389836</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.59055118110236215</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.770814414414414</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1293614395886891</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.72287397260274</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.609331207289294</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1468911304347826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1569396253602307</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.829159813084112</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.387442729970326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'total-new'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1602,315 +1911,6 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'total-new'!$E$2:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>5.2023269340974219</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3625762711864406</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8237270341207346</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4706306306306312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3501542416452441</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.123441780821917</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.716378132118451</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8909391304347833</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5457636887608075</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.837032710280373</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.3234569732937693</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7908309455587392</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.97966101694915242</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.55183727034120733</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1335360360360358</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1121850899742931</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7644006849315068</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2511161731207299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.2289391304347825</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.2922766570605186</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.3831775700934577</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9228486646884273</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1181500801146132</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.9218608949152544E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.5467194120734918E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.77264272722972982</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.60959455221079673</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.75793718015410949</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.3637959140091116</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.60867047375652172</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.61206354466858781</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.26550373831775703</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.61201201780415437</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.7294520547945208E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.46214899713467045</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.19067796610169491</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.39708661417322832</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.0703603603603604</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.8515167095115681</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.4700171232876715</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4275398633257404</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.61467826086956523</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0817867435158501</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.77392523364485988</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.36571216617210683</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.90785100286532949</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.28071186440677964</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.28937007874015747</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.5497522522522522</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.8463753213367611</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.1216438356164384</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.1469020501138951</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.6724173913043474</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.457766570605187</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.6906775700934578</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.8592878338278933</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.8435384105730659</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.073309952542373</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.39060493606299207</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.0361954422522519</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.6486708520308486</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.1196960616438361</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.6946697042369019</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.8127994304173924</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.1628662838616721</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.9967446939252325</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.1613673590504447</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.32266475644699</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.6576271186440672</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.1240157480314963</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6.2789189189189187</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.519280205655527</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.2554109589041103</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.1831662870159452</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.400156521739131</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.5846685878962523</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.6625233644859811</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.9198219584569727</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.10432664756447</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.1105423728813559</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.28388451443569557</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.3731756756756757</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.4196658097686377</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.0028082191780818</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.2892938496583146</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.928504347826087</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.8277953890489909</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.731308411214953</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2451186943620178</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.1312805157593124</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.49540312203389836</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.59055118110236215</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.770814414414414</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.1293614395886891</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.72287397260274</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.609331207289294</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.1468911304347826</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.1569396253602307</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.829159813084112</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.387442729970326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3261,16 +3261,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3597,17 +3597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4DC37-4A0F-4ED9-B269-EA0B3684D9FC}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>3.49</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>18.156121000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2.95</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>6.9696000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3.81</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>10.758399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>28.729600000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>3.89</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>13.0321</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>5.84</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>29.920899999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>29.484899999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>5.75</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>22.372900000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>6.94</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>45.427600000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>4.28</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>20.702499999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>6.74</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>35.880100000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>3.49</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>2.95</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>2.8899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>3.81</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>2.1025</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>13.9129</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>3.89</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>4.3264000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>5.84</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>10.3041</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>18.662400000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>5.75</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>12.8164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>6.94</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>22.848400000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>4.28</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>6.74</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>3.49</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0.41234377960000007</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>2.95</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>0.23369489640000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>3.81</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0.32563000960000005</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>3.4305337089000005</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>3.89</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>2.3713228080999995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>5.84</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>4.4263531320999991</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>1.5970640624999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>5.75</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>3.4998552240999996</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>6.94</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>4.2477209999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>4.28</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>1.1363560000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>6.74</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>4.1249610000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>2.92</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0.10890000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>3.49</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1.6129</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>2.95</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>3.81</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1.5128999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>4.7524000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>3.89</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>3.3124000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>5.84</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>8.5849000000000011</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>1.8769000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>5.75</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>3.5343999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>6.94</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>7.5076000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>4.28</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>3.3124000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>6.74</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>2.4649000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>3.49</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>3.1684000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>2.95</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>0.82810000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>3.81</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>1.1025</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>15.760900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>3.89</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>7.1824000000000012</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>5.84</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>12.3904</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>9.4248999999999992</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>5.75</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>15.366399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>6.94</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>17.056899999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>4.28</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>7.2360999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>6.74</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>12.531600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>3.49</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>9.9239490529000012</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>2.95</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>3.1662643600000004</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>3.81</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>1.4882048063999997</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>26.800707763600002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>3.89</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>10.303329614400001</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>5.84</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>24.059025000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>24.999600001599998</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>5.75</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>27.673596724900005</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>6.94</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>42.770292010000006</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>4.28</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>29.946067289999998</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>6.74</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>28.047616000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>3.49</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>18.576099999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>2.95</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>7.839999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>3.81</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>11.902500000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>27.878400000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>3.89</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>13.690000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>5.84</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>30.691600000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>27.144099999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>5.75</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>25.300900000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>6.94</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>45.697599999999994</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>4.28</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>28.515599999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>6.74</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>26.419599999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>3.49</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>7.3441000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>2.95</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>3.2761</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>3.81</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>1.0816000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>14.976900000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>3.89</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>5.5225000000000009</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>5.84</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>11.696399999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>5.75</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>11.088900000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>6.94</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>19.624899999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>4.28</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>6.74</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>15.132100000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
         <v>3.49</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>3.9481690000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
         <v>2.95</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>1.4614392100000002</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
         <v>3.81</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
         <v>4.4400000000000004</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>7.8624159999999987</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
         <v>3.89</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>4.3932160000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
         <v>5.84</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>10.061584000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>4.3899999999999997</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>7.0649639999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
         <v>5.75</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>6.5946240000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>6.94</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>14.969161000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
         <v>4.28</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>7.8288039999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>6.74</v>
       </c>
